--- a/stock_historical_data/1wk/PETRONET.NS.xlsx
+++ b/stock_historical_data/1wk/PETRONET.NS.xlsx
@@ -56435,7 +56435,9 @@
       <c r="P1056" t="n">
         <v>0</v>
       </c>
-      <c r="Q1056" t="inlineStr"/>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PETRONET.NS.xlsx
+++ b/stock_historical_data/1wk/PETRONET.NS.xlsx
@@ -59661,7 +59661,9 @@
       <c r="Q1057" t="n">
         <v>2</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PETRONET.NS.xlsx
+++ b/stock_historical_data/1wk/PETRONET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1057"/>
+  <dimension ref="A1:R1059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59665,6 +59665,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>323.8999938964844</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>324.6000061035156</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>307.6499938964844</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>320.25</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>320.25</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>19952029</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>320.0499877929688</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>334.0499877929688</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>314</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>330.25</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>330.25</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>32001726</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/PETRONET.NS.xlsx
+++ b/stock_historical_data/1wk/PETRONET.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1059"/>
+  <dimension ref="A1:R1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -59597,7 +59597,7 @@
         <v>23</v>
       </c>
       <c r="O1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1056" t="n">
         <v>0</v>
@@ -59717,7 +59717,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59771,7 +59773,711 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>333</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>341</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>330.25</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>337.3999938964844</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>334.4373168945312</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>18454292</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>337.0499877929688</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>343</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>321.2000122070312</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>339.0499877929688</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>336.0728149414062</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>19977100</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>341.4500122070312</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>355.75</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>338.25</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>342.8999938964844</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>342.8999938964844</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>18606630</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>342.2999877929688</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>377.9500122070312</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>329.8999938964844</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>372.3999938964844</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>372.3999938964844</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>47792130</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>370.9500122070312</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>376.4500122070312</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>362.3999938964844</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>362.3999938964844</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>22435071</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>20923063</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>364.3500061035156</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>375.6000061035156</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>361.8500061035156</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>370.8999938964844</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>370.8999938964844</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>11338898</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>370</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>384.2000122070312</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>370</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>370.7999877929688</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>370.7999877929688</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>15726586</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>372.7999877929688</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>372.7999877929688</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>361.0499877929688</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>367.2999877929688</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>367.2999877929688</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>13438876</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>369</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>352</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>354</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>354</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>11326345</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>348.2000122070312</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>352.3999938964844</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>334.1000061035156</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>14646069</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>335</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>338.2999877929688</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>319.7999877929688</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>325</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>325</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>20467126</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>327</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>342.3999938964844</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>325.5499877929688</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>339.3500061035156</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>339.3500061035156</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>21589457</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PETRONET.NS.xlsx
+++ b/stock_historical_data/1wk/PETRONET.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1072"/>
+  <dimension ref="A1:R1098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -59829,7 +59829,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59883,7 +59885,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59937,7 +59941,9 @@
       <c r="Q1062" t="n">
         <v>1</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59991,7 +59997,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -60045,7 +60053,9 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -60099,7 +60109,9 @@
       <c r="Q1065" t="n">
         <v>0</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60153,7 +60165,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60207,7 +60221,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60261,7 +60277,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60315,7 +60333,9 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60369,7 +60389,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60415,7 +60437,7 @@
         <v>38</v>
       </c>
       <c r="O1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1071" t="n">
         <v>0</v>
@@ -60423,7 +60445,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60477,7 +60501,1361 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>333.1352702607166</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>361.2068098479907</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>329.3140187291858</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>350.6248779296875</v>
+      </c>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="n">
+        <v>34003896</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>354.1032111129975</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>354.4951290033207</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>336.9075632506897</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>347.9794006347656</v>
+      </c>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="n">
+        <v>12839087</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>348.8122421026764</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>354.1032083340625</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>335.9277509378751</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>342.3945007324219</v>
+      </c>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="n">
+        <v>13111828</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>340.9737641939969</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>349.596077305002</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>326.5705501252349</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>330.7347412109375</v>
+      </c>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="n">
+        <v>13880563</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>328.3342062648172</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>331.9105053607457</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>317.8502314780957</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>329.1180419921875</v>
+      </c>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="n">
+        <v>9133439</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>330.783755634073</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>342.835402798925</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>319.907862150362</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>322.2593994140625</v>
+      </c>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="n">
+        <v>14373955</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>327</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>330.4500122070312</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>312.75</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="n">
+        <v>8770828</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>324.9500122070312</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>323.6000061035156</v>
+      </c>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="n">
+        <v>8262244</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>326.1499938964844</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>324.1000061035156</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>333.1000061035156</v>
+      </c>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="n">
+        <v>13830798</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>345</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>334.6499938964844</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>335.8500061035156</v>
+      </c>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="n">
+        <v>12124773</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>333.6000061035156</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>346.7999877929688</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>331.6000061035156</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="n">
+        <v>10956848</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>343.6499938964844</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>327.75</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>336.4500122070312</v>
+      </c>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="n">
+        <v>15815501</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>338</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>346.3999938964844</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>336.3999938964844</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="n">
+        <v>8222362</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>349.5</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>317.7999877929688</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>329.4500122070312</v>
+      </c>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="n">
+        <v>33714190</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>330.8500061035156</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>337.2999877929688</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>319.2999877929688</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>320.3500061035156</v>
+      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="n">
+        <v>16330792</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>318.8500061035156</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>313.2000122070312</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>324.7999877929688</v>
+      </c>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="n">
+        <v>8997592</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>324.7999877929688</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>331.8500061035156</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>317.7999877929688</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>322.7000122070312</v>
+      </c>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="n">
+        <v>7627328</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>319</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>320.7000122070312</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>288.3500061035156</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>308.7999877929688</v>
+      </c>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="n">
+        <v>16318927</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>308.75</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>319.3999938964844</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>301.7000122070312</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>315.4500122070312</v>
+      </c>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="n">
+        <v>9601186</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>315.4500122070312</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>282.5499877929688</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>286.6499938964844</v>
+      </c>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="n">
+        <v>8864522</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>286.6499938964844</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>278.0499877929688</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="n">
+        <v>9035566</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>300</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>306</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>280.1000061035156</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>283.2999877929688</v>
+      </c>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="n">
+        <v>15446434</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>281.2000122070312</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>285.8999938964844</v>
+      </c>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="n">
+        <v>10664446</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>284</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>274.0499877929688</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>281</v>
+      </c>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="n">
+        <v>7555284</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>281</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>305.4500122070312</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>279.3999938964844</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>301.25</v>
+      </c>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="n">
+        <v>10899263</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>302</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>308.3500061035156</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>293.6000061035156</v>
+      </c>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="n">
+        <v>10772753</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
